--- a/biology/Médecine/1428_en_santé_et_médecine/1428_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1428_en_santé_et_médecine/1428_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1428_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1428_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1428 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1428_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1428_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les apothicaires de Londres sont incorporés à la Worshipful Company of Grocers (en), qui rassemble déjà les marchands de poivre et d'épices (pepperers and spicers[1]).
-Refondation à Florence, grâce à un legs de Simone Buonarotta, ancêtre de Michel-Ange, d'un hôpital appartenant à la Compagnia di Santa Maria della Croce al Tempio (it)[2].
-Fondation à Leyde, en Hollande, d'un hôpital destiné à l'accueil de « pauvres femmes malades » et placé sous le patronage de sainte Élisabeth[3].
-Fondation de l'hôpital d'Orgon, en Provence, par Elzéar de Mouriès[4].
-Fermeture d'une léproserie fondée avant 1291 dans le village de Choseley (en), près de Docking, entre Fakenham et King's Lynn dans le comté de Norfolk en Angleterre[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les apothicaires de Londres sont incorporés à la Worshipful Company of Grocers (en), qui rassemble déjà les marchands de poivre et d'épices (pepperers and spicers).
+Refondation à Florence, grâce à un legs de Simone Buonarotta, ancêtre de Michel-Ange, d'un hôpital appartenant à la Compagnia di Santa Maria della Croce al Tempio (it).
+Fondation à Leyde, en Hollande, d'un hôpital destiné à l'accueil de « pauvres femmes malades » et placé sous le patronage de sainte Élisabeth.
+Fondation de l'hôpital d'Orgon, en Provence, par Elzéar de Mouriès.
+Fermeture d'une léproserie fondée avant 1291 dans le village de Choseley (en), près de Docking, entre Fakenham et King's Lynn dans le comté de Norfolk en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1428_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1428_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Velasco de Taranta (pt), médecin portugais, licencié à Montpellier, professeur à Bordeaux, familier de la cour de Foix, termine la rédaction de sa Chirurgia, où il s'attache « à réhabiliter le rôle des sages-femmes auprès des médecins[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Velasco de Taranta (pt), médecin portugais, licencié à Montpellier, professeur à Bordeaux, familier de la cour de Foix, termine la rédaction de sa Chirurgia, où il s'attache « à réhabiliter le rôle des sages-femmes auprès des médecins ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1428_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1428_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nicolas Léonicène (mort en 1524), médecin et humaniste italien, professeur à Ferrare, en Émilie[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nicolas Léonicène (mort en 1524), médecin et humaniste italien, professeur à Ferrare, en Émilie.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1428_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1428_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Abraham de Yanna (né à une date inconnue), chirurgien à Fribourg, de 1423 à sa mort[8].
-Laurent Gomech (né à une date inconnue), médecin portugais, actif depuis 1407 au plus tard[6].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abraham de Yanna (né à une date inconnue), chirurgien à Fribourg, de 1423 à sa mort.
+Laurent Gomech (né à une date inconnue), médecin portugais, actif depuis 1407 au plus tard.</t>
         </is>
       </c>
     </row>
